--- a/inputs/raw/Home_ownership_rates/home_ownership_rates.xlsx
+++ b/inputs/raw/Home_ownership_rates/home_ownership_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/sync/git/global-unbreakable-model/inputs/raw/Home_ownership_rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD3D1C-6402-A745-8808-1F9ABDAC378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D951B12-A4BC-B543-BD79-05BB13CA0A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="900" windowWidth="29080" windowHeight="16960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="224">
   <si>
     <t>Eurostat</t>
   </si>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8156,10 +8156,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B590AB0-14E4-4B48-98F9-064A5C0272C9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8227,6 +8227,26 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>0.82</v>
+      </c>
+      <c r="C4">
+        <v>0.82</v>
+      </c>
+      <c r="D4">
+        <v>0.82</v>
+      </c>
+      <c r="E4">
+        <v>0.82</v>
+      </c>
+      <c r="F4">
+        <v>0.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
